--- a/Diagrama/Visualizacion en excel.xlsx
+++ b/Diagrama/Visualizacion en excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\REPOSITORIO\C#\ADIVINADOR\Diagrama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA93D44E-D424-48A7-9A9D-1F016A5D60E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F352BE-9FD0-4D32-AF6A-E9283A4793CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{E04CC513-621D-4CCA-9F7C-C87D6702EDFD}"/>
+    <workbookView xWindow="20370" yWindow="-3960" windowWidth="19440" windowHeight="15600" xr2:uid="{E04CC513-621D-4CCA-9F7C-C87D6702EDFD}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>id</t>
   </si>
@@ -51,12 +51,6 @@
     <t>hijo izquierdo</t>
   </si>
   <si>
-    <t>Puede volar?</t>
-  </si>
-  <si>
-    <t>Puede nadar?</t>
-  </si>
-  <si>
     <t>Es un mamifero?</t>
   </si>
   <si>
@@ -66,13 +60,28 @@
     <t>Es un anfibio?</t>
   </si>
   <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>Se alimenta de peces?</t>
-  </si>
-  <si>
-    <t>?</t>
+    <t>Puede hablar?</t>
+  </si>
+  <si>
+    <t>Es una ave?</t>
+  </si>
+  <si>
+    <t>Es un acutico?</t>
+  </si>
+  <si>
+    <t>Tiene tentaculos?</t>
+  </si>
+  <si>
+    <t>Su animal es el personaje principal de la serie animada de bojack horseman?</t>
+  </si>
+  <si>
+    <t>Posee un caparazon?</t>
+  </si>
+  <si>
+    <t>En una pelicula, su animal fue besado por una princesa?</t>
+  </si>
+  <si>
+    <t>NULL</t>
   </si>
 </sst>
 </file>
@@ -123,9 +132,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,8 +458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E80197F7-25E1-41FC-995D-DE71582DB525}">
   <dimension ref="B3:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,281 +487,274 @@
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="1">
+      <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3">
         <v>0</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="3">
         <v>2</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="1">
+      <c r="B5" s="3">
         <f>B4+1</f>
         <v>2</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3">
         <v>1</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="3">
         <v>4</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="1">
+      <c r="B6" s="3">
         <f t="shared" ref="B6:B26" si="0">B5+1</f>
         <v>3</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="3">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="1">
+      <c r="B7" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2</v>
+      </c>
+      <c r="E7" s="3">
+        <v>6</v>
+      </c>
+      <c r="F7" s="3">
         <v>7</v>
       </c>
-      <c r="D7" s="1">
-        <v>2</v>
-      </c>
-      <c r="E7" s="1">
-        <v>6</v>
-      </c>
-      <c r="F7" s="1">
-        <v>7</v>
-      </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="1">
+      <c r="B8" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="3">
         <v>2</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="3">
         <v>12</v>
       </c>
-      <c r="F8" s="1">
-        <v>11</v>
-      </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="1">
+      <c r="B9" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3">
+        <v>4</v>
+      </c>
+      <c r="E9" s="3">
         <v>8</v>
       </c>
-      <c r="D9" s="1">
-        <v>4</v>
-      </c>
-      <c r="E9" s="1">
-        <v>8</v>
-      </c>
-      <c r="F9" s="1">
+      <c r="F9" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="1">
+    <row r="10" spans="2:6" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="C10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="3">
+        <v>4</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="3">
+        <v>13</v>
+      </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="1">
+      <c r="B11" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="1">
+      <c r="C11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="3">
         <v>6</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="3">
         <v>10</v>
       </c>
-      <c r="F11" s="1">
-        <v>10</v>
-      </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="1">
+      <c r="B12" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="1">
+      <c r="C12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="3">
+        <v>6</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="C13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="3">
+        <v>8</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="3">
+        <v>15</v>
+      </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="1">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="1">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="1">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="1">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="1">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="1">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="1">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="1">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="1">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="1">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="1">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="1">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
